--- a/Backup/Shopkeepers.xlsx
+++ b/Backup/Shopkeepers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,50 +449,100 @@
           <t>Contact_Info</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IsDeleted</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ali Traders</t>
+          <t>Usman &amp; Sons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03001112222</t>
-        </is>
+          <t>03005556666</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Usman &amp; Sons</t>
+          <t>Hassan Mart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03005556666</t>
-        </is>
+          <t>03114445555</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Ahmed</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>03448657308</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>03114433344</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Hassan Mart</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>03114445555</t>
-        </is>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>03114445556</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Backup/Shopkeepers.xlsx
+++ b/Backup/Shopkeepers.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03114445555</t>
+          <t>03114445578</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Backup/Shopkeepers.xlsx
+++ b/Backup/Shopkeepers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ali Sweets</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>35645757567</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>42354354354</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backup/Shopkeepers.xlsx
+++ b/Backup/Shopkeepers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>IsDeleted</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Brand</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +477,11 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bonapapa</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -490,6 +500,11 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Candyland</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -508,6 +523,11 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bonapapa</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -526,6 +546,11 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Candyland</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -544,6 +569,11 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bonapapa</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -562,6 +592,11 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Candyland</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -579,6 +614,34 @@
       </c>
       <c r="D8" t="n">
         <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bonapapa</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ahmed</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>53454634634</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Candyland</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Backup/Shopkeepers.xlsx
+++ b/Backup/Shopkeepers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Usman &amp; Sons</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03005556666</t>
+          <t>03448657309</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -485,16 +485,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hassan Mart</t>
+          <t>Gul Khan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03114445578</t>
+          <t>23455534566</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -508,137 +508,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>Karim</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03448657308</t>
+          <t>03465537715</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bonapapa</t>
+          <t>Candyland</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Nadim</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03114433344</t>
+          <t>03475858399</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>Candyland</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hassan Mart</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>03114445556</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Bonapapa</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ali Sweets</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>35645757567</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Candyland</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>KKR</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>42354354354</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Bonapapa</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ahmed</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>53454634634</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>Candyland</t>
         </is>

--- a/Backup/Shopkeepers.xlsx
+++ b/Backup/Shopkeepers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>Hamza Traders</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03448657309</t>
+          <t>03234567890</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -485,16 +485,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gul Khan</t>
+          <t>Hassan General Store</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23455534566</t>
+          <t>03001234567</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -502,22 +502,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Candyland</t>
+          <t>Bonapapa</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karim</t>
+          <t>Rashid Mart</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03465537715</t>
+          <t>03124567890</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -531,22 +531,45 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nadim</t>
+          <t>Al Madina Store</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03475858399</t>
+          <t>03451234567</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>Candyland</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kroon Shop</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11243243245</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Candyland</t>
         </is>
